--- a/4.project.122/Metadata.xlsx
+++ b/4.project.122/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargas/padl/longley-wood-spatial-data/4.project.110/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargas/padl/aguerra-acanthurus/4.project.122/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBC83A7-4F53-A545-A939-8209D46C6A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0F13BB-D8DC-1C46-B86E-4BAE2C3D86ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3EE599B7-8C8A-034C-9627-5DB855A5679C}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6A019FA2-6D1B-044B-960E-EC38D1485A09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>LK:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For a new unit, define it in Unit Dictionary and fill in the unit id in this column</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3EE599B7-8C8A-034C-9627-5DB855A5679C}">
       <text>
         <r>
           <rPr>
@@ -182,39 +215,6 @@
             <family val="2"/>
           </rPr>
           <t>aplicable for Date class</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{6A019FA2-6D1B-044B-960E-EC38D1485A09}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>LK:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>For a new unit, define it in Unit Dictionary and fill in the unit id in this column</t>
         </r>
       </text>
     </comment>
@@ -474,7 +474,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1348">
   <si>
     <t>csv_E</t>
   </si>
@@ -3560,12 +3560,6 @@
     <t>palmyra_project</t>
   </si>
   <si>
-    <t>edi.1045</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll soil and/or wood density sampling locations used in the carbon storage analysis</t>
-  </si>
-  <si>
     <t>aweg</t>
   </si>
   <si>
@@ -3689,207 +3683,33 @@
     <t>0000- 0001- 6975-0852</t>
   </si>
   <si>
-    <t>NSF DEB #1457371</t>
-  </si>
-  <si>
     <t>otherEntity</t>
   </si>
   <si>
     <t>dataTable</t>
   </si>
   <si>
-    <t>Shapefiles with geospatil data</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll Soil and Wood Sample attributes  2016 and 2019</t>
-  </si>
-  <si>
-    <t>zip file with all necessary files to read in the location of the sampling for this project</t>
-  </si>
-  <si>
-    <t>Additional information of trees and soil samples</t>
-  </si>
-  <si>
-    <t>This describes the vegetation community type at the sampling location. Homo refers to homogeneous (single-species) community types, while Hetero refers to heterogeneous community types.</t>
-  </si>
-  <si>
     <t>categorical</t>
   </si>
   <si>
-    <t>This refers to whether the islet from which the sample was extracted is man-made or natural. Whether the islet is man-made or natural can affect sediment properties.</t>
-  </si>
-  <si>
-    <t>Latitudinal location of the sample</t>
-  </si>
-  <si>
     <t>numeric</t>
   </si>
   <si>
-    <t>Longitudinal location of the sample</t>
-  </si>
-  <si>
-    <t>The individual islet at Palmyra from where the sample was extracted</t>
-  </si>
-  <si>
     <t>character</t>
   </si>
   <si>
-    <t>A unique identifying code assigned to each sampling location</t>
-  </si>
-  <si>
-    <t>Dry bulk density of the soil sample, measured by dividing the dried weight of the soil sample by the volume of the soil extracted at the sampling location</t>
-  </si>
-  <si>
-    <t>The percentage of organic carbon measured or calculated from each soil sample</t>
-  </si>
-  <si>
-    <t>Observed woody vegetation species closest to soil sampling location OR wood species sampled</t>
-  </si>
-  <si>
-    <t>Type of tree at the location of the sample according to remote sensing data (Struckhoff 2019)</t>
-  </si>
-  <si>
-    <t>Woody vegetation community type at the location of the sample according to remote sensing data (Struckhoff 2019)</t>
-  </si>
-  <si>
-    <t>The year in which the sample was extracted</t>
-  </si>
-  <si>
-    <t>YYYY</t>
-  </si>
-  <si>
-    <t>Based on the soil organic carbon content, the bin that each sample was assigned to for modelling purposes. High &gt;20%; Medium 10 – 20%; Low &lt;10%</t>
-  </si>
-  <si>
-    <t>Mean dry bulk density values for each bin category</t>
-  </si>
-  <si>
-    <t>Denotes which types of samples were extracted at each location</t>
-  </si>
-  <si>
     <t>gramsPerCubicMeter</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>grain</t>
-  </si>
-  <si>
-    <t>origin</t>
-  </si>
-  <si>
     <t>lat</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>dbd</t>
-  </si>
-  <si>
-    <t>org_c_per</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
-    <t>crown_ras</t>
-  </si>
-  <si>
-    <t>com_ras</t>
-  </si>
-  <si>
-    <t>sample_yr</t>
-  </si>
-  <si>
-    <t>org_c_bin</t>
-  </si>
-  <si>
-    <t>dbd_avg</t>
-  </si>
-  <si>
-    <t>sample_type</t>
-  </si>
-  <si>
-    <t>Lagoon</t>
-  </si>
-  <si>
-    <t>Leeward</t>
-  </si>
-  <si>
-    <t>Windward</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Med</t>
-  </si>
-  <si>
-    <t>Man-made</t>
-  </si>
-  <si>
-    <t>Natural</t>
-  </si>
-  <si>
-    <t>Hetero</t>
-  </si>
-  <si>
-    <t>Homo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicates that the sample was taken on the leeward side of the island (i.e. no prevailing wind). </t>
-  </si>
-  <si>
-    <t>Indicates that the sample was taken on the windward side of the island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samples extracted closer to the interior of the atoll where the prevailing wind patterns are less likely to affect grain size. </t>
-  </si>
-  <si>
-    <t>This refers to the grain or sediment found at each sampling location, as prevailing winds can affect sediment size and other soil properties.</t>
-  </si>
-  <si>
-    <t>&gt;20% of soil organic carbon</t>
-  </si>
-  <si>
-    <t>10 – 20% of soil organic carbon</t>
-  </si>
-  <si>
-    <t>&lt; 10% of soil organic carbon</t>
-  </si>
-  <si>
-    <t>Sample extracted of a man-made islet</t>
-  </si>
-  <si>
-    <t>Sample extracted of a natural islet</t>
-  </si>
-  <si>
-    <t>homogeneous (single-species) community types</t>
-  </si>
-  <si>
-    <t>heterogeneous community types</t>
-  </si>
-  <si>
     <t>Palmyra Atoll</t>
   </si>
   <si>
-    <t>Wood Samples</t>
-  </si>
-  <si>
-    <t>Soil Samples</t>
-  </si>
-  <si>
-    <t>Carbon</t>
-  </si>
-  <si>
     <t>creator</t>
   </si>
   <si>
@@ -3902,18 +3722,9 @@
     <t>g/m^3</t>
   </si>
   <si>
-    <t>soil_wood_samples_loc_info_2016_2019.csv</t>
-  </si>
-  <si>
-    <t>soil_wood_samples_location_palmyra_2016_2019.zip</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>projectTitle</t>
   </si>
   <si>
@@ -3923,10 +3734,1332 @@
     <t>fundingNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">National Science Foundation </t>
-  </si>
-  <si>
-    <t>Wildlife Conservation Society Climate Adaptation Fund</t>
+    <t>edi.1070</t>
+  </si>
+  <si>
+    <t>Spatial and Social Behavior of Acanthurus triostegus on Moorea (French Polynesia) and Palmyra Atoll (USA), 2017-2018</t>
+  </si>
+  <si>
+    <t>Acanthurus triostegus behavior data, Moorea 2018</t>
+  </si>
+  <si>
+    <t>Acanthurus triostegus behavior data, Palmyra Atoll 2017</t>
+  </si>
+  <si>
+    <t>Acanthurus triostegus GPS tracks, Moorea 2018</t>
+  </si>
+  <si>
+    <t>Acanthurus triostegus GPS tracks, Palmyra Atoll 2017</t>
+  </si>
+  <si>
+    <t>School of reef fish species surveys, Moorea 2018</t>
+  </si>
+  <si>
+    <t>School of reef fish species surveys, Palmyra Atoll 2017</t>
+  </si>
+  <si>
+    <t>Behavior (grazing and social associations) data collection conducted on schooling and solitary Acanthurus triostegus on Moorea Island, French Polynesia.</t>
+  </si>
+  <si>
+    <t>Behavior (grazing and social associations) data collection conducted on schooling and solitary Acanthurus triostegus on Palmyra Atoll, USA.</t>
+  </si>
+  <si>
+    <t>GPS tracks associated with behavioral follows conducted on schooling and solitary Acanthurus triostegus on Moorea, French Polynesia</t>
+  </si>
+  <si>
+    <t>GPS tracks associated with behavioral follows conducted on schooling and solitary Acanthurus triostegus on Palmyra Atoll, USA</t>
+  </si>
+  <si>
+    <t>Size, frequency, and occurrence of fish schools of different reef fish species on Moorea, and presence and abundance of territorial herbivores.</t>
+  </si>
+  <si>
+    <t>Size, frequency, and occurrence of fish schools of different reef fish species on Palmyra Atoll, and presence and abundance of territorial herbivores and predatory species.</t>
+  </si>
+  <si>
+    <t>Schooling risk supplement analysis script</t>
+  </si>
+  <si>
+    <t>Schooling risk main MS script</t>
+  </si>
+  <si>
+    <t>Code used for analysis of supplemental material of “Effects of predator abundance on schooling coral reef fish”</t>
+  </si>
+  <si>
+    <t>Code used for analysis of main manuscript of “Effects of predator abundance on schooling coral reef fish”</t>
+  </si>
+  <si>
+    <t>Guerra_schooling_risk_Supplement.Rmd</t>
+  </si>
+  <si>
+    <t>Guerra_Schooling_Risk_MainMS_Rev1.Rmd</t>
+  </si>
+  <si>
+    <t>acatri_behavior_moorea_2018.csv</t>
+  </si>
+  <si>
+    <t>acatri_behavior_palmyra_2017.csv</t>
+  </si>
+  <si>
+    <t>acatri_tracks_moorea_2018.csv</t>
+  </si>
+  <si>
+    <t>acatri_tracks_palmyra_2017.csv</t>
+  </si>
+  <si>
+    <t>schooling_surveys_moorea_2018.csv</t>
+  </si>
+  <si>
+    <t>schooling_surveys_palmyra_2017.csv</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Island where work was conducted (Palmyra or Moorea)</t>
+  </si>
+  <si>
+    <t>FollowID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unique identifier for each follow of a solitary </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A. triostegus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">or school of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A triostegus. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Corresponds to same observations as those in `acatri_tracks_moo2018’</t>
+    </r>
+  </si>
+  <si>
+    <t>Date when follow was conducted </t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Site (within island) where follow was conducted. </t>
+  </si>
+  <si>
+    <t>start.time</t>
+  </si>
+  <si>
+    <t>Time of day of follow start</t>
+  </si>
+  <si>
+    <t>HH:MM:SS</t>
+  </si>
+  <si>
+    <t>end.time</t>
+  </si>
+  <si>
+    <t>Time of day of follow end</t>
+  </si>
+  <si>
+    <t>Observer</t>
+  </si>
+  <si>
+    <t>Initials of observer following fish</t>
+  </si>
+  <si>
+    <t>time.stamp</t>
+  </si>
+  <si>
+    <r>
+      <t>Designates each 60s point at which behavioral data was noted (e.g., ‘5’ corresponds to the 5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="6.6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> time point, or 5 minutes in). </t>
+    </r>
+  </si>
+  <si>
+    <t>school.size</t>
+  </si>
+  <si>
+    <t>School size (if applicable). If fish is solitary, noted as 1</t>
+  </si>
+  <si>
+    <t>number of fish</t>
+  </si>
+  <si>
+    <t>behavior</t>
+  </si>
+  <si>
+    <t>Whether fish was in a “head down grazing non vigilant position” (G), or otherwise swimming or oriented parallel to substrate (S). U means fish was out of sight for that time stamp and behavior is unknown.</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>1 or 0. 1 if for head down grazing (G), if this occurred as an invasion of heterospecific fish territory. This was evident because territorial fish would actively defend territory and attempt to ward of invaders. </t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>inv.SN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If territorial invasion was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Stegastes nigricans</t>
+    </r>
+  </si>
+  <si>
+    <t>inv.ZS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If territorial invasion was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Zebrasoma scopas</t>
+    </r>
+  </si>
+  <si>
+    <t>inv.CS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If territorial invasion was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ctenochaetus striatus</t>
+    </r>
+  </si>
+  <si>
+    <t>inv.ANm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If territorial invasion was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Acanthurus nigrofuscus</t>
+    </r>
+  </si>
+  <si>
+    <t>pred</t>
+  </si>
+  <si>
+    <t>1 or 0; If pisivorous predatory fish were associated with focal fish (often only applicable to schools). Association is defined as swimming in same direction as school and located behind or within school of fish. </t>
+  </si>
+  <si>
+    <t>pred.AC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated predator was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Alostomus chinensis</t>
+    </r>
+  </si>
+  <si>
+    <t>pred.FC</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated predator was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Fistularia commersonii</t>
+    </r>
+  </si>
+  <si>
+    <t>pred.CM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated predator was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Caranx melampygus</t>
+    </r>
+  </si>
+  <si>
+    <t>het.div</t>
+  </si>
+  <si>
+    <t>Number of different heterospecific fish species that were associated with the focal fish. </t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>het.CS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ctenochaetus striatus</t>
+    </r>
+  </si>
+  <si>
+    <t>het.CD</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cantherhines dumerilii</t>
+    </r>
+  </si>
+  <si>
+    <t>het.KYPH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of genus </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Kyphosus</t>
+    </r>
+  </si>
+  <si>
+    <t>het.SA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Siganus argentatus</t>
+    </r>
+  </si>
+  <si>
+    <t>het.AG</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Acanthurus guttatus</t>
+    </r>
+  </si>
+  <si>
+    <t>het.CI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cheilio inermis</t>
+    </r>
+  </si>
+  <si>
+    <t>het.parrot</t>
+  </si>
+  <si>
+    <t>1 or 0; If associated heterospecific fish was a parrotfish</t>
+  </si>
+  <si>
+    <t>het.SP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Scarus psittacus</t>
+    </r>
+  </si>
+  <si>
+    <t>het.TH</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Thalassoma hardwicke</t>
+    </r>
+  </si>
+  <si>
+    <t>het.CSP</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chlorurus spilurus</t>
+    </r>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unique identifier for each follow of a solitary </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A. triostegus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">or school of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A triostegus. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Corresponds to same observations as those in `acatri_tracks_pal2017’</t>
+    </r>
+  </si>
+  <si>
+    <t>count of fish individuals</t>
+  </si>
+  <si>
+    <t>inv.AL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If territorial invasion was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Acanthurus lineatus</t>
+    </r>
+  </si>
+  <si>
+    <t>inv.AN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If territorial invasion was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Acanthurus nigricans</t>
+    </r>
+  </si>
+  <si>
+    <t>pred.LB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated predator was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Lutjanus bohar</t>
+    </r>
+  </si>
+  <si>
+    <t>pred.BTS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated predator was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Carcharhinus melanopterus</t>
+    </r>
+  </si>
+  <si>
+    <t>pred.ROI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated predator was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cephalopholis argus</t>
+    </r>
+  </si>
+  <si>
+    <t>het.AB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Acanthurus blochii</t>
+    </r>
+  </si>
+  <si>
+    <t>het.AN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Acanthurus nigricans</t>
+    </r>
+  </si>
+  <si>
+    <t>het.AX</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Acanthurus xanthoptherus</t>
+    </r>
+  </si>
+  <si>
+    <t>het.MN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Melichthys niger</t>
+    </r>
+  </si>
+  <si>
+    <t>het.SR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Scarus rubroviolaceus</t>
+    </r>
+  </si>
+  <si>
+    <t>het.SF</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Scarus frenatus</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Scarus altipinnis</t>
+    </r>
+  </si>
+  <si>
+    <t>het.SO</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 or 0; If associated heterospecific fish was of species </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Scarus oviceps</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unique identifier for each follow of a solitary </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A. triostegus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">or school of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A triostegus. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Corresponds to same observations as those in `acatri_behavior_moo2018’</t>
+    </r>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unique identifier for each follow of a solitary </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A. triostegus </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">or school of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">A triostegus. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>Corresponds to same observations as those in `acatri_behavior_pal2017’</t>
+    </r>
+  </si>
+  <si>
+    <t>SurveyID</t>
+  </si>
+  <si>
+    <t>Unique identifier for survey</t>
+  </si>
+  <si>
+    <t>YYYY-DD-MM</t>
+  </si>
+  <si>
+    <t>Initials of observer</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Whether this was one of the schooling focal species (SCHOOL) or territorial herbivores (HERBIVORE)</t>
+  </si>
+  <si>
+    <t>s.encounter.num</t>
+  </si>
+  <si>
+    <t>Individual ID for each observation within a survey. Schooling species observations are a letter and a corresponding number for observation number. </t>
+  </si>
+  <si>
+    <t>schooling</t>
+  </si>
+  <si>
+    <t>For schooling species only, 1 = fish were observed in a school, 0 = solitary, blank = none observed. </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NA values exist when no individuals of that species were observed</t>
+  </si>
+  <si>
+    <t>Number of fish observed</t>
+  </si>
+  <si>
+    <t>letter code for each species: ACATRI = Acanthurus triostegus, ACANIGRO = Acanthurus nigrofuscus, ACAGUT = Acanthurus guttatus, CHLSPI = Chlorurus spilurus, CHLFRO= Chlorurus frontalis, SCAPSI = Scarus Psittacus, 
+LUTFUL = Lutjanus fulvus, LUTMON = Lutjanus monostigma, MULVAN = Mulloidichthys vanicolensis, MULFLA = Mulloidichtys flavolineatus, STENIG = Stegastes nigricans</t>
+  </si>
+  <si>
+    <t>Whether this was one of the schooling focal species (SCHOOL), territorial herbivores (HERBIVORE), or predatory species (PREDATOR). </t>
+  </si>
+  <si>
+    <t>Individual ID for each observation within a survey. Schooling species observations are a letter and a corresponding number for observation number. Herbivores and predators have HERB or PRED before a corresponding number. </t>
+  </si>
+  <si>
+    <t>letter code for each species: ACATRI = Acanthurus triostegus, ACABLO = Acanthurus blochii, ACAGUT = Acanthurus guttatus, CHLSPI = Chlorurus spilurus, CHLFRO= Chlorurus frontalis, SCAPSI = Scarus Psittacus, 
+ACAALT = Acanthurus alitpinnis, LUTGIB = Lutjanus gibbus, LUTFUL = Lutjanus fulvus, LUTMON = Lutjanus monostigma, MULVAN = Mulloidichthys vanicolensis, MULFLA = Mulloidichtys flavolineatus, ACANIG = Acanthurus nigricans, STENIG = Stegastes nigricans, CARANXMEL = Caranx melampygus , LUTBOH = Lutjanus bohar</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Fish was in a “head down grazing non vigilant position”</t>
+  </si>
+  <si>
+    <r>
+      <t>Fish was s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times"/>
+        <family val="1"/>
+      </rPr>
+      <t>wimming or oriented parallel to substrate </t>
+    </r>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Fish was out of sight for that time stamp and behavior is unknown.</t>
+  </si>
+  <si>
+    <t>ASG</t>
+  </si>
+  <si>
+    <t>Ana Sofia Guerra</t>
+  </si>
+  <si>
+    <t>EJ</t>
+  </si>
+  <si>
+    <t>Elizabeth Jahn</t>
+  </si>
+  <si>
+    <t>Fish was swimming or oriented parallel to substrate </t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>Jennifer Caselle</t>
+  </si>
+  <si>
+    <t>KD</t>
+  </si>
+  <si>
+    <t>Kathryn Davis</t>
+  </si>
+  <si>
+    <t>KDM</t>
+  </si>
+  <si>
+    <t>Katrina Munsterman</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>KSM</t>
+  </si>
+  <si>
+    <t>Marisa Morse</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Crazy Corals</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>Long Liner</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>Penguin Spit</t>
+  </si>
+  <si>
+    <t>PSI</t>
+  </si>
+  <si>
+    <t>Penguin Spit Inner</t>
+  </si>
+  <si>
+    <t>PSM</t>
+  </si>
+  <si>
+    <t>Penguin Spit Middle</t>
+  </si>
+  <si>
+    <t>PSO</t>
+  </si>
+  <si>
+    <t>Penguin Spit Outer</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>Rubble Pile</t>
+  </si>
+  <si>
+    <t>SIB</t>
+  </si>
+  <si>
+    <t>Surface Interval Buoy</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>Western Terrace</t>
+  </si>
+  <si>
+    <t>HERBIVORE</t>
+  </si>
+  <si>
+    <t>Herbivorous fish that associate with schools</t>
+  </si>
+  <si>
+    <t>PREDATOR</t>
+  </si>
+  <si>
+    <t>Predatory fish that associate with schools</t>
+  </si>
+  <si>
+    <t>SCHOOL</t>
+  </si>
+  <si>
+    <t>species of interest for schooling behavior</t>
+  </si>
+  <si>
+    <t>SCHOOL, HERBIVORE</t>
+  </si>
+  <si>
+    <t>species of interest for schooling behavior that are herbivores</t>
+  </si>
+  <si>
+    <t>ACAGUT</t>
+  </si>
+  <si>
+    <t>Acanthurus guttatus</t>
+  </si>
+  <si>
+    <t>ACANIGRO</t>
+  </si>
+  <si>
+    <t>Acanthurus nigrofuscus</t>
+  </si>
+  <si>
+    <t>ACATRI</t>
+  </si>
+  <si>
+    <t>Acanthurus triostegus</t>
+  </si>
+  <si>
+    <t>CARANXMEL</t>
+  </si>
+  <si>
+    <t>Caranx melampygus</t>
+  </si>
+  <si>
+    <t>CHLFRO</t>
+  </si>
+  <si>
+    <t>Chlorurus frontalis</t>
+  </si>
+  <si>
+    <t>CHLSPI</t>
+  </si>
+  <si>
+    <t>Chlorurus spilurus</t>
+  </si>
+  <si>
+    <t>LUTFUL</t>
+  </si>
+  <si>
+    <t>Lutjanus fulvus</t>
+  </si>
+  <si>
+    <t>LUTMON</t>
+  </si>
+  <si>
+    <t>Lutjanus monostigma</t>
+  </si>
+  <si>
+    <t>MULFLA</t>
+  </si>
+  <si>
+    <t>Mulloidichtys flavolineatus</t>
+  </si>
+  <si>
+    <t>MULVAN</t>
+  </si>
+  <si>
+    <t>Mulloidichthys vanicolensis</t>
+  </si>
+  <si>
+    <t>SCAPSI</t>
+  </si>
+  <si>
+    <t>Scarus Psittacus</t>
+  </si>
+  <si>
+    <t>STENIG</t>
+  </si>
+  <si>
+    <t>Stegastes nigricans</t>
+  </si>
+  <si>
+    <t>ACABLO</t>
+  </si>
+  <si>
+    <t>Acanthurus blochii</t>
+  </si>
+  <si>
+    <t>ACALIN</t>
+  </si>
+  <si>
+    <t>Acanthurus lineatus</t>
+  </si>
+  <si>
+    <t>ACANIG</t>
+  </si>
+  <si>
+    <t>Acanthurus nigricans</t>
+  </si>
+  <si>
+    <t>CARMEL</t>
+  </si>
+  <si>
+    <t>Carcharhinus melanopterus</t>
+  </si>
+  <si>
+    <t>LUTBOH</t>
+  </si>
+  <si>
+    <t>Lutjanus bohar</t>
+  </si>
+  <si>
+    <t>LUTGIB</t>
+  </si>
+  <si>
+    <t>Lutjanus gibbus</t>
+  </si>
+  <si>
+    <t>SCAALT</t>
+  </si>
+  <si>
+    <t>Scarus altipinnis</t>
+  </si>
+  <si>
+    <t>SCAGLO</t>
+  </si>
+  <si>
+    <t>Scarus globiceps</t>
+  </si>
+  <si>
+    <t>fish behavior</t>
+  </si>
+  <si>
+    <t>coral reef</t>
+  </si>
+  <si>
+    <t>Moorea</t>
+  </si>
+  <si>
+    <t>Backreef and western terrace of Palmyra Atoll National Wildlife Refuge (USA)</t>
+  </si>
+  <si>
+    <t>Backreefs of Moorea Island (French Polynesia)</t>
+  </si>
+  <si>
+    <t>Ana Sofia</t>
+  </si>
+  <si>
+    <t>Guerra</t>
+  </si>
+  <si>
+    <t>asg@ucsb.edu</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Caselle</t>
+  </si>
+  <si>
+    <t>caselle@ucsb.edu</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>McCauley</t>
+  </si>
+  <si>
+    <t>dmccauley@ucsb.edu</t>
+  </si>
+  <si>
+    <t>asguerra</t>
+  </si>
+  <si>
+    <t>jcaselle</t>
+  </si>
+  <si>
+    <t>dmcc</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Jahn</t>
+  </si>
+  <si>
+    <t>Marisa</t>
+  </si>
+  <si>
+    <t>Morse</t>
+  </si>
+  <si>
+    <t>Kathryn</t>
+  </si>
+  <si>
+    <t>Katrina</t>
+  </si>
+  <si>
+    <t>Munsterman</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>ejahn</t>
+  </si>
+  <si>
+    <t>mmorse</t>
+  </si>
+  <si>
+    <t>kdavis</t>
+  </si>
+  <si>
+    <t>kmunsterman</t>
+  </si>
+  <si>
+    <t>field work data collection</t>
+  </si>
+  <si>
+    <t>Worster Award</t>
+  </si>
+  <si>
+    <t>UCSB Academic Senate Faculty Research Grant</t>
+  </si>
+  <si>
+    <t>Marisla Foundation grant for Palmyra Research</t>
+  </si>
+  <si>
+    <t>Marisla Foundation</t>
+  </si>
+  <si>
+    <t>het</t>
+  </si>
+  <si>
+    <t>1 or 0; If non-piscivorous heterospecific fish were associated with focal fish (often only applicable to schools). Association is defined as swimming in same direction as school and located behind or within school of fish.</t>
   </si>
 </sst>
 </file>
@@ -3937,7 +5070,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4001,6 +5134,50 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="6.6"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4023,7 +5200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4040,6 +5217,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4323,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4374,28 +5560,28 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>1028</v>
+        <v>1086</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="16" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2" s="17">
+        <v>42969</v>
+      </c>
+      <c r="F2" s="17">
+        <v>43340</v>
+      </c>
+      <c r="G2" s="13">
+        <v>44582</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1029</v>
-      </c>
-      <c r="E2">
-        <v>2016</v>
-      </c>
-      <c r="F2">
-        <v>2019</v>
-      </c>
-      <c r="G2" s="13">
-        <v>44566</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="I2" t="s">
         <v>1000</v>
@@ -4423,7 +5609,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -5746,10 +6932,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>1097</v>
+        <v>1074</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1097</v>
+        <v>1074</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>1</v>
@@ -5758,7 +6944,7 @@
         <v>438</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1141</v>
+        <v>1081</v>
       </c>
       <c r="F2" s="1">
         <v>1E-3</v>
@@ -5767,7 +6953,7 @@
         <v>368</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1097</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -12468,10 +13654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12514,74 +13700,180 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D2" t="s">
-        <v>1074</v>
+        <v>1088</v>
       </c>
       <c r="E2" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="8" t="s">
-        <v>1143</v>
+      <c r="H2" s="19" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D3" t="s">
-        <v>1075</v>
+        <v>1089</v>
       </c>
       <c r="E3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>1095</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="8" t="s">
-        <v>1142</v>
+      <c r="H3" s="14" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>122</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1096</v>
+      </c>
       <c r="G4" s="4"/>
+      <c r="H4" s="14" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>122</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1097</v>
+      </c>
       <c r="G5" s="4"/>
+      <c r="H5" s="14" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1098</v>
+      </c>
       <c r="G6" s="4"/>
+      <c r="H6" s="14" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1099</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="14" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>122</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1102</v>
+      </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>122</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1105</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="need a matching file type" sqref="F1" xr:uid="{4380E1FC-047D-F54D-93BE-FA4ACEBAE2DB}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="wrong input" error="wrong input" promptTitle="select value:" prompt="otherEntity (non-tabular data) or dataTable (csv or txt)" sqref="C1:C1048576" xr:uid="{20A1A553-66EC-0747-AE5C-A86CFC1D0590}">
       <formula1>"otherEntity, dataTable"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="need a matching file type" sqref="F1" xr:uid="{4380E1FC-047D-F54D-93BE-FA4ACEBAE2DB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12608,11 +13900,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -12621,8 +13913,8 @@
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="47.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="18.5" style="1" customWidth="1"/>
+    <col min="8" max="9" width="15.83203125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -12643,10 +13935,10 @@
         <v>1006</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>824</v>
@@ -12661,357 +13953,2062 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1079</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>1073</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>110</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1079</v>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="1">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>1073</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>110</v>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="1">
+        <v>122</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1079</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>1082</v>
       </c>
       <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5">
-        <v>110</v>
+      <c r="G4" s="20" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="1">
+        <v>122</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1081</v>
-      </c>
-      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:11" ht="16">
+      <c r="A6" s="1">
+        <v>122</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>1082</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6">
-        <v>110</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6"/>
+      <c r="G6" s="20" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16">
+      <c r="A7" s="1">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>1082</v>
       </c>
-      <c r="F6"/>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7">
-        <v>110</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1085</v>
-      </c>
       <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8">
-        <v>110</v>
+      <c r="G7" s="20" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16">
+      <c r="A8" s="1">
+        <v>122</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1086</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1085</v>
+        <v>1</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1071</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9">
-        <v>110</v>
+    <row r="9" spans="1:11" ht="16">
+      <c r="A9" s="1">
+        <v>122</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>1082</v>
       </c>
-      <c r="F9"/>
-      <c r="G9" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>110</v>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="1">
+        <v>122</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:11" ht="16">
+      <c r="A11" s="1">
+        <v>122</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1085</v>
+        <v>1</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>1071</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12">
-        <v>110</v>
+    <row r="12" spans="1:11" ht="16">
+      <c r="A12" s="1">
+        <v>122</v>
       </c>
       <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:11" ht="16">
+      <c r="A13" s="1">
+        <v>122</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:11" ht="16">
+      <c r="A14" s="1">
+        <v>122</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:11" ht="16">
+      <c r="A15" s="1">
+        <v>122</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:11" ht="16">
+      <c r="A16" s="1">
+        <v>122</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" ht="16">
+      <c r="A17" s="1">
+        <v>122</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" ht="16">
+      <c r="A18" s="1">
+        <v>122</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" ht="16">
+      <c r="A19" s="1">
+        <v>122</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" ht="16">
+      <c r="A20" s="1">
+        <v>122</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" ht="16">
+      <c r="A21" s="1">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" ht="16">
+      <c r="A22" s="1">
+        <v>122</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16">
+      <c r="A23" s="1">
+        <v>122</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" ht="16">
+      <c r="A24" s="1">
+        <v>122</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G24"/>
+    </row>
+    <row r="25" spans="1:7" ht="16">
+      <c r="A25" s="1">
+        <v>122</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G25"/>
+    </row>
+    <row r="26" spans="1:7" ht="16">
+      <c r="A26" s="1">
+        <v>122</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G26"/>
+    </row>
+    <row r="27" spans="1:7" ht="16">
+      <c r="A27" s="1">
+        <v>122</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G27"/>
+    </row>
+    <row r="28" spans="1:7" ht="16">
+      <c r="A28" s="1">
+        <v>122</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G28"/>
+    </row>
+    <row r="29" spans="1:7" ht="16">
+      <c r="A29" s="1">
+        <v>122</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G29"/>
+    </row>
+    <row r="30" spans="1:7" ht="16">
+      <c r="A30" s="1">
+        <v>122</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G30"/>
+    </row>
+    <row r="31" spans="1:7" ht="16">
+      <c r="A31" s="1">
+        <v>122</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G31"/>
+    </row>
+    <row r="32" spans="1:7" ht="16">
+      <c r="A32" s="1">
+        <v>122</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G32"/>
+    </row>
+    <row r="33" spans="1:7" ht="16">
+      <c r="A33" s="1">
+        <v>122</v>
+      </c>
+      <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>110</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="C33" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33"/>
+    </row>
+    <row r="34" spans="1:7" ht="16">
+      <c r="A34" s="1">
+        <v>122</v>
+      </c>
+      <c r="B34" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>110</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="C34" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34"/>
+    </row>
+    <row r="35" spans="1:7" ht="16">
+      <c r="A35" s="1">
+        <v>122</v>
+      </c>
+      <c r="B35" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1144</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15">
-        <v>110</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="C35" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F35"/>
+      <c r="G35" s="20" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16">
+      <c r="A36" s="1">
+        <v>122</v>
+      </c>
+      <c r="B36" s="1">
         <v>2</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1079</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>110</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="C36" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:7" ht="16">
+      <c r="A37" s="1">
+        <v>122</v>
+      </c>
+      <c r="B37" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1095</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C37" s="20" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>1082</v>
       </c>
-      <c r="F16"/>
-      <c r="G16" s="1" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>110</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="F37"/>
+      <c r="G37" s="20" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16">
+      <c r="A38" s="1">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1">
         <v>2</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C38" s="20" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" s="20" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16">
+      <c r="A39" s="1">
+        <v>122</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:7" ht="16">
+      <c r="A40" s="1">
+        <v>122</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16">
+      <c r="A41" s="1">
+        <v>122</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:7" ht="16">
+      <c r="A42" s="1">
+        <v>122</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:7" ht="16">
+      <c r="A43" s="1">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:7" ht="16">
+      <c r="A44" s="1">
+        <v>122</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:7" ht="16">
+      <c r="A45" s="1">
+        <v>122</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:7" ht="16">
+      <c r="A46" s="1">
+        <v>122</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:7" ht="16">
+      <c r="A47" s="1">
+        <v>122</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:7" ht="16">
+      <c r="A48" s="1">
+        <v>122</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" ht="16">
+      <c r="A49" s="1">
+        <v>122</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>1183</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" ht="16">
+      <c r="A50" s="1">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G50"/>
+    </row>
+    <row r="51" spans="1:7" ht="16">
+      <c r="A51" s="1">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G51"/>
+    </row>
+    <row r="52" spans="1:7" ht="16">
+      <c r="A52" s="1">
+        <v>122</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G52"/>
+    </row>
+    <row r="53" spans="1:7" ht="16">
+      <c r="A53" s="1">
+        <v>122</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G53"/>
+    </row>
+    <row r="54" spans="1:7" ht="16">
+      <c r="A54" s="1">
+        <v>122</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G54"/>
+    </row>
+    <row r="55" spans="1:7" ht="16">
+      <c r="A55" s="1">
+        <v>122</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G55"/>
+    </row>
+    <row r="56" spans="1:7" ht="16">
+      <c r="A56" s="1">
+        <v>122</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G56"/>
+    </row>
+    <row r="57" spans="1:7" ht="16">
+      <c r="A57" s="1">
+        <v>122</v>
+      </c>
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G57"/>
+    </row>
+    <row r="58" spans="1:7" ht="16">
+      <c r="A58" s="1">
+        <v>122</v>
+      </c>
+      <c r="B58" s="1">
+        <v>2</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G58"/>
+    </row>
+    <row r="59" spans="1:7" ht="16">
+      <c r="A59" s="1">
+        <v>122</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G59"/>
+    </row>
+    <row r="60" spans="1:7" ht="16">
+      <c r="A60" s="1">
+        <v>122</v>
+      </c>
+      <c r="B60" s="1">
+        <v>2</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G60"/>
+    </row>
+    <row r="61" spans="1:7" ht="16">
+      <c r="A61" s="1">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1">
+        <v>2</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G61"/>
+    </row>
+    <row r="62" spans="1:7" ht="16">
+      <c r="A62" s="1">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G62"/>
+    </row>
+    <row r="63" spans="1:7" ht="16">
+      <c r="A63" s="1">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1">
+        <v>2</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G63"/>
+    </row>
+    <row r="64" spans="1:7" ht="16">
+      <c r="A64" s="1">
+        <v>122</v>
+      </c>
+      <c r="B64" s="1">
+        <v>2</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G64"/>
+    </row>
+    <row r="65" spans="1:9" ht="16">
+      <c r="A65" s="1">
+        <v>122</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G65"/>
+    </row>
+    <row r="66" spans="1:9" ht="16">
+      <c r="A66" s="1">
+        <v>122</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="20" t="s">
         <v>1112</v>
       </c>
-      <c r="D17" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17"/>
+      <c r="D66" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66"/>
+    </row>
+    <row r="67" spans="1:9" ht="16">
+      <c r="A67" s="1">
+        <v>122</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67"/>
+    </row>
+    <row r="68" spans="1:9" ht="16">
+      <c r="A68" s="1">
+        <v>122</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" s="20" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="16">
+      <c r="A69" s="1">
+        <v>122</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69"/>
+    </row>
+    <row r="70" spans="1:9" ht="16">
+      <c r="A70" s="1">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="16">
+      <c r="A71" s="1">
+        <v>122</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71"/>
+    </row>
+    <row r="72" spans="1:9" ht="16">
+      <c r="A72" s="1">
+        <v>122</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72"/>
+    </row>
+    <row r="73" spans="1:9" ht="16">
+      <c r="A73" s="1">
+        <v>122</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73"/>
+    </row>
+    <row r="74" spans="1:9" ht="16">
+      <c r="A74" s="1">
+        <v>122</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74"/>
+    </row>
+    <row r="75" spans="1:9" ht="16">
+      <c r="A75" s="10">
+        <v>122</v>
+      </c>
+      <c r="B75" s="10">
+        <v>4</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75" s="20" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="16">
+      <c r="A76" s="10">
+        <v>122</v>
+      </c>
+      <c r="B76" s="10">
+        <v>4</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76"/>
+    </row>
+    <row r="77" spans="1:9" ht="16">
+      <c r="A77" s="10">
+        <v>122</v>
+      </c>
+      <c r="B77" s="10">
+        <v>4</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="16">
+      <c r="A78" s="10">
+        <v>122</v>
+      </c>
+      <c r="B78" s="10">
+        <v>4</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E78" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F78" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78"/>
+    </row>
+    <row r="79" spans="1:9" ht="16">
+      <c r="A79" s="10">
+        <v>122</v>
+      </c>
+      <c r="B79" s="10">
+        <v>4</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F79" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79"/>
+    </row>
+    <row r="80" spans="1:9" ht="16">
+      <c r="A80" s="10">
+        <v>122</v>
+      </c>
+      <c r="B80" s="10">
+        <v>5</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" spans="1:9" ht="16">
+      <c r="A81" s="10">
+        <v>122</v>
+      </c>
+      <c r="B81" s="10">
+        <v>5</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" spans="1:9" ht="16">
+      <c r="A82" s="10">
+        <v>122</v>
+      </c>
+      <c r="B82" s="10">
+        <v>5</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82" s="20" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" spans="1:9" ht="16">
+      <c r="A83" s="10">
+        <v>122</v>
+      </c>
+      <c r="B83" s="10">
+        <v>5</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" spans="1:9" ht="16">
+      <c r="A84" s="10">
+        <v>122</v>
+      </c>
+      <c r="B84" s="10">
+        <v>5</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E84" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+    </row>
+    <row r="85" spans="1:9" ht="16">
+      <c r="A85" s="10">
+        <v>122</v>
+      </c>
+      <c r="B85" s="10">
+        <v>5</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" spans="1:9" ht="153">
+      <c r="A86" s="10">
+        <v>122</v>
+      </c>
+      <c r="B86" s="10">
+        <v>5</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="16">
+      <c r="A87" s="10">
+        <v>122</v>
+      </c>
+      <c r="B87" s="10">
+        <v>5</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="16">
+      <c r="A88" s="10">
+        <v>122</v>
+      </c>
+      <c r="B88" s="10">
+        <v>5</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E88" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G88"/>
+      <c r="H88" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I88" s="18" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="16">
+      <c r="A89" s="10">
+        <v>122</v>
+      </c>
+      <c r="B89" s="10">
+        <v>5</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
+    <row r="90" spans="1:9" ht="16">
+      <c r="A90" s="1">
+        <v>122</v>
+      </c>
+      <c r="B90" s="1">
+        <v>6</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+    </row>
+    <row r="91" spans="1:9" ht="16">
+      <c r="A91" s="1">
+        <v>122</v>
+      </c>
+      <c r="B91" s="1">
+        <v>6</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+    </row>
+    <row r="92" spans="1:9" ht="16">
+      <c r="A92" s="1">
+        <v>122</v>
+      </c>
+      <c r="B92" s="1">
+        <v>6</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92" s="20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92"/>
+    </row>
+    <row r="93" spans="1:9" ht="16">
+      <c r="A93" s="1">
+        <v>122</v>
+      </c>
+      <c r="B93" s="1">
+        <v>6</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E93" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+    </row>
+    <row r="94" spans="1:9" ht="16">
+      <c r="A94" s="1">
+        <v>122</v>
+      </c>
+      <c r="B94" s="1">
+        <v>6</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+    </row>
+    <row r="95" spans="1:9" ht="16">
+      <c r="A95" s="1">
+        <v>122</v>
+      </c>
+      <c r="B95" s="1">
+        <v>6</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+    </row>
+    <row r="96" spans="1:9" ht="204">
+      <c r="A96" s="1">
+        <v>122</v>
+      </c>
+      <c r="B96" s="1">
+        <v>6</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="16">
+      <c r="A97" s="1">
+        <v>122</v>
+      </c>
+      <c r="B97" s="1">
+        <v>6</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E97" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+    </row>
+    <row r="98" spans="1:9" ht="16">
+      <c r="A98" s="1">
+        <v>122</v>
+      </c>
+      <c r="B98" s="1">
+        <v>6</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E98" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F98" s="20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G98"/>
+      <c r="H98" s="18" t="s">
+        <v>1219</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="16">
+      <c r="A99" s="1">
+        <v>122</v>
+      </c>
+      <c r="B99" s="1">
+        <v>6</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E99" s="20" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E1048576" xr:uid="{F3F90F79-D594-1941-9A3A-EF9F1861D001}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E100:F1048576" xr:uid="{F3F90F79-D594-1941-9A3A-EF9F1861D001}">
       <formula1>"character,numeric,categorical,Date"</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from values" sqref="I2:I1048576" xr:uid="{EF3D2B7E-F801-F54D-B43E-424F59DC5B40}">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from values" sqref="I1" xr:uid="{81676368-8811-8245-8667-EA33212D37D5}"/>
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from unit dictionary" sqref="F1" xr:uid="{4998F1BF-B48A-CC43-8CD0-5517B80102AD}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from values" sqref="I2:I79 I100:I1048576" xr:uid="{EF3D2B7E-F801-F54D-B43E-424F59DC5B40}">
       <formula1>"integer,natural,real,whole"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="select from values" sqref="I1" xr:uid="{81676368-8811-8245-8667-EA33212D37D5}"/>
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from unit dictionary" sqref="G1" xr:uid="{4998F1BF-B48A-CC43-8CD0-5517B80102AD}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="choose from unit dictionary" xr:uid="{29DC8A32-A454-CD4A-945C-7F0136225942}">
-          <x14:formula1>
-            <xm:f>ListUnitDictionary!$A:$A</xm:f>
-          </x14:formula1>
-          <xm:sqref>G18:G1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13039,181 +16036,1363 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1099</v>
+        <v>1132</v>
       </c>
       <c r="D2" t="s">
-        <v>1113</v>
+        <v>1226</v>
       </c>
       <c r="E2" t="s">
-        <v>1125</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>1099</v>
+        <v>1132</v>
       </c>
       <c r="D3" t="s">
-        <v>1114</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>1123</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1099</v>
+        <v>1132</v>
       </c>
       <c r="D4" t="s">
-        <v>1115</v>
+        <v>1229</v>
       </c>
       <c r="E4" t="s">
-        <v>1124</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>1110</v>
+        <v>1125</v>
       </c>
       <c r="D5" t="s">
-        <v>1116</v>
+        <v>1231</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>1127</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>1110</v>
+        <v>1125</v>
       </c>
       <c r="D6" t="s">
-        <v>1117</v>
+        <v>1233</v>
       </c>
       <c r="E6" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
       <c r="A7" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="C7" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
       <c r="A8" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
       <c r="A9" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1120</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="C9" s="20" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
       <c r="A10" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1121</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="C10" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
       <c r="A11" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1122</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="C11" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="1">
+        <v>122</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="1">
+        <v>122</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="1">
+        <v>122</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="1">
+        <v>122</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="1">
+        <v>122</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="1">
+        <v>122</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="1">
+        <v>122</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="1">
+        <v>122</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="1">
+        <v>122</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="1">
+        <v>122</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="1">
+        <v>122</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="1">
+        <v>122</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16">
+      <c r="A24" s="1">
+        <v>122</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16">
+      <c r="A25" s="1">
+        <v>122</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>122</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>122</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>122</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>122</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>122</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>122</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>122</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>122</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>122</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>122</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>122</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>122</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>122</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>122</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>122</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>122</v>
+      </c>
+      <c r="B41" s="1">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>122</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>122</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>122</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>122</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>122</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>122</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>122</v>
+      </c>
+      <c r="B49" s="1">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>122</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>122</v>
+      </c>
+      <c r="B53" s="1">
+        <v>6</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>122</v>
+      </c>
+      <c r="B54" s="1">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>122</v>
+      </c>
+      <c r="B55" s="1">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>122</v>
+      </c>
+      <c r="B56" s="1">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>122</v>
+      </c>
+      <c r="B57" s="1">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>122</v>
+      </c>
+      <c r="B58" s="1">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>122</v>
+      </c>
+      <c r="B59" s="1">
+        <v>6</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>122</v>
+      </c>
+      <c r="B60" s="1">
+        <v>6</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>122</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>122</v>
+      </c>
+      <c r="B63" s="1">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>122</v>
+      </c>
+      <c r="B64" s="1">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>122</v>
+      </c>
+      <c r="B65" s="1">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>122</v>
+      </c>
+      <c r="B66" s="1">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>122</v>
+      </c>
+      <c r="B67" s="1">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>122</v>
+      </c>
+      <c r="B68" s="1">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>122</v>
+      </c>
+      <c r="B69" s="1">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>122</v>
+      </c>
+      <c r="B70" s="1">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>122</v>
+      </c>
+      <c r="B71" s="1">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>122</v>
+      </c>
+      <c r="B72" s="1">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>122</v>
+      </c>
+      <c r="B73" s="1">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>122</v>
+      </c>
+      <c r="B74" s="1">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>122</v>
+      </c>
+      <c r="B75" s="1">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>122</v>
+      </c>
+      <c r="B76" s="1">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>122</v>
+      </c>
+      <c r="B77" s="1">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>122</v>
+      </c>
+      <c r="B78" s="1">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>122</v>
+      </c>
+      <c r="B79" s="1">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>122</v>
+      </c>
+      <c r="B80" s="1">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>122</v>
+      </c>
+      <c r="B81" s="1">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1294</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13226,7 +17405,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13248,45 +17427,45 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>1134</v>
+        <v>1077</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>110</v>
+      <c r="A3" s="1">
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>1135</v>
+        <v>1311</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>110</v>
+      <c r="A4" s="1">
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -13298,10 +17477,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F013127A-4C83-524F-8DF5-99BFEE8C0FCA}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -13320,96 +17499,147 @@
         <v>1001</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1146</v>
+        <v>1083</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1147</v>
+        <v>1084</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1148</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1138</v>
+        <v>1078</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>1326</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1138</v>
+        <v>1079</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1065</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1139</v>
+        <v>1341</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16">
       <c r="A5" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1145</v>
+        <v>1078</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1037</v>
+        <v>1327</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>1344</v>
       </c>
       <c r="E5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1">
       <c r="A6" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1140</v>
+        <v>1078</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1041</v>
+        <v>1328</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1145</v>
+        <v>1341</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1150</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>122</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1338</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>122</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>122</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>122</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1039</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13422,7 +17652,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13455,29 +17685,43 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>1134</v>
+        <v>1314</v>
       </c>
       <c r="C2" s="5">
-        <v>5.8833299999999999</v>
+        <v>5.8988519999999998</v>
       </c>
       <c r="D2" s="5">
-        <v>5.8710000000000004</v>
-      </c>
-      <c r="E2" s="5">
-        <v>-162.04300000000001</v>
-      </c>
-      <c r="F2" s="5">
-        <v>-162.083</v>
+        <v>5.8597530000000004</v>
+      </c>
+      <c r="E2">
+        <v>-162.11319399999999</v>
+      </c>
+      <c r="F2">
+        <v>-162.169399</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="1">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-17.475466999999998</v>
+      </c>
+      <c r="D3">
+        <v>-17.573157999999999</v>
+      </c>
+      <c r="E3">
+        <v>-149.75149999999999</v>
+      </c>
+      <c r="F3">
+        <v>-149.92726099999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13486,10 +17730,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13551,17 +17795,17 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B2" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="11" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E2" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F2"/>
       <c r="G2"/>
@@ -13571,23 +17815,23 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2" s="12" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="N2"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C3"/>
       <c r="D3" s="12" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -13597,23 +17841,23 @@
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3" s="12" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N3"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="12" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E4" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -13623,23 +17867,23 @@
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C5"/>
       <c r="D5" s="12" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E5" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -13653,17 +17897,17 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B6" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -13673,23 +17917,23 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" s="12" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="N6"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B7" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E7" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F7"/>
       <c r="G7"/>
@@ -13699,25 +17943,25 @@
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F8"/>
       <c r="G8"/>
@@ -13727,25 +17971,25 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="N8" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B9" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E9" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -13755,11 +17999,132 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="N9" t="s">
-        <v>1070</v>
-      </c>
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16">
+      <c r="A13" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" s="21" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:14" ht="16">
+      <c r="A14" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" s="21" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:14" ht="16">
+      <c r="A15" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" s="21" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:14" ht="16">
+      <c r="A16" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16" s="21" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F16" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13774,8 +18139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B25934-9280-524E-B624-293E63FB208B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
